--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.7317747065271</v>
+        <v>462.3185765475617</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.5049961138072</v>
+        <v>632.5646724884906</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.9115368356014</v>
+        <v>572.1935879562822</v>
       </c>
       <c r="AD2" t="n">
-        <v>425731.7747065271</v>
+        <v>462318.5765475617</v>
       </c>
       <c r="AE2" t="n">
-        <v>582504.9961138072</v>
+        <v>632564.6724884906</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.56216820027723e-06</v>
+        <v>4.740681983117979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.931249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>526911.5368356014</v>
+        <v>572193.5879562822</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.8745624940938</v>
+        <v>166.0702526163228</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.537964870916</v>
+        <v>227.224646132017</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.4445169955855</v>
+        <v>205.5386448170365</v>
       </c>
       <c r="AD3" t="n">
-        <v>153874.5624940938</v>
+        <v>166070.2526163228</v>
       </c>
       <c r="AE3" t="n">
-        <v>210537.964870916</v>
+        <v>227224.646132017</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.678075936815462e-06</v>
+        <v>8.655665270890181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.247916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>190444.5169955855</v>
+        <v>205538.6448170365</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.1307255394299</v>
+        <v>164.326415661659</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.1519702168893</v>
+        <v>224.8386514779903</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.2862383225738</v>
+        <v>203.3803661440248</v>
       </c>
       <c r="AD4" t="n">
-        <v>152130.7255394299</v>
+        <v>164326.4156616589</v>
       </c>
       <c r="AE4" t="n">
-        <v>208151.9702168893</v>
+        <v>224838.6514779903</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.721549496212069e-06</v>
+        <v>8.736102737779046e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>188286.2383225738</v>
+        <v>203380.3661440248</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.2873128440114</v>
+        <v>278.9000779640207</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.295363914389</v>
+        <v>381.6033908734269</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.9591046216262</v>
+        <v>345.1836988321891</v>
       </c>
       <c r="AD2" t="n">
-        <v>255287.3128440114</v>
+        <v>278900.0779640207</v>
       </c>
       <c r="AE2" t="n">
-        <v>349295.363914389</v>
+        <v>381603.3908734269</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.423364915697494e-06</v>
+        <v>6.525461865438235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.591666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>315959.1046216262</v>
+        <v>345183.6988321891</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8508315527619</v>
+        <v>170.2076636176039</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.9277863318507</v>
+        <v>232.885634393658</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7515204083152</v>
+        <v>210.6593563042352</v>
       </c>
       <c r="AD3" t="n">
-        <v>146850.831552762</v>
+        <v>170207.6636176039</v>
       </c>
       <c r="AE3" t="n">
-        <v>200927.7863318507</v>
+        <v>232885.634393658</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.730443188262119e-06</v>
+        <v>9.016954777471409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>181751.5204083152</v>
+        <v>210659.3563042352</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.9790228994107</v>
+        <v>182.8206565357716</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.626845141024</v>
+        <v>250.1432877502619</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.4750900960591</v>
+        <v>226.269963445759</v>
       </c>
       <c r="AD2" t="n">
-        <v>161979.0228994107</v>
+        <v>182820.6565357716</v>
       </c>
       <c r="AE2" t="n">
-        <v>221626.845141024</v>
+        <v>250143.2877502619</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.235081553424947e-06</v>
+        <v>9.019615375525737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.141666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>200475.0900960591</v>
+        <v>226269.963445759</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4392737406349</v>
+        <v>167.3828658330353</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.9964306597639</v>
+        <v>229.0206214435302</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.004490610897</v>
+        <v>207.1632147654867</v>
       </c>
       <c r="AD2" t="n">
-        <v>145439.2737406349</v>
+        <v>167382.8658330353</v>
       </c>
       <c r="AE2" t="n">
-        <v>198996.4306597639</v>
+        <v>229020.6214435302</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.52698177007935e-06</v>
+        <v>9.191338114193445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.707291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>180004.490610897</v>
+        <v>207163.2147654867</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.6050167952341</v>
+        <v>167.5486088876345</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.2232076191339</v>
+        <v>229.2473984029003</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.2096242955483</v>
+        <v>207.368348450138</v>
       </c>
       <c r="AD3" t="n">
-        <v>145605.0167952341</v>
+        <v>167548.6088876345</v>
       </c>
       <c r="AE3" t="n">
-        <v>199223.2076191339</v>
+        <v>229247.3984029003</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.539869974406977e-06</v>
+        <v>9.217505624838836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.696875</v>
       </c>
       <c r="AH3" t="n">
-        <v>180209.6242955483</v>
+        <v>207368.348450138</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.5634772712028</v>
+        <v>203.6176013076112</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.4772066825593</v>
+        <v>278.5985850835283</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.8127153781975</v>
+        <v>252.0095271388081</v>
       </c>
       <c r="AD2" t="n">
-        <v>173563.4772712028</v>
+        <v>203617.6013076112</v>
       </c>
       <c r="AE2" t="n">
-        <v>237477.2066825593</v>
+        <v>278598.5850835283</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854033700908311e-06</v>
+        <v>8.582180266485804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.727083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>214812.7153781975</v>
+        <v>252009.5271388081</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.3658858462198</v>
+        <v>323.9122359744237</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.5549268198226</v>
+        <v>443.1910112595212</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.8991583654557</v>
+        <v>400.8934831674027</v>
       </c>
       <c r="AD2" t="n">
-        <v>288365.8858462198</v>
+        <v>323912.2359744237</v>
       </c>
       <c r="AE2" t="n">
-        <v>394554.9268198226</v>
+        <v>443191.0112595212</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.179340889311663e-06</v>
+        <v>6.011382243677486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>356899.1583654557</v>
+        <v>400893.4831674027</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.3297571297827</v>
+        <v>160.2070769659254</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.9513175519211</v>
+        <v>219.2023905420932</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.5819286487866</v>
+        <v>198.2820220413061</v>
       </c>
       <c r="AD3" t="n">
-        <v>148329.7571297827</v>
+        <v>160207.0769659254</v>
       </c>
       <c r="AE3" t="n">
-        <v>202951.3175519211</v>
+        <v>219202.3905420932</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725190331024212e-06</v>
+        <v>8.934218205228456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>183581.9286487866</v>
+        <v>198282.0220413061</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.8553531582532</v>
+        <v>160.7326729943959</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.6704612257343</v>
+        <v>219.9215342159065</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.2324382596959</v>
+        <v>198.9325316522153</v>
       </c>
       <c r="AD4" t="n">
-        <v>148855.3531582532</v>
+        <v>160732.6729943959</v>
       </c>
       <c r="AE4" t="n">
-        <v>203670.4612257343</v>
+        <v>219921.5342159065</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.725489450498228e-06</v>
+        <v>8.934783769462501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>184232.4382596959</v>
+        <v>198932.5316522153</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.9987651156623</v>
+        <v>215.5980325938106</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.1741572863783</v>
+        <v>294.9907397086239</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.5799920998385</v>
+        <v>266.8372375330234</v>
       </c>
       <c r="AD2" t="n">
-        <v>195998.7651156623</v>
+        <v>215598.0325938106</v>
       </c>
       <c r="AE2" t="n">
-        <v>268174.1572863783</v>
+        <v>294990.739708624</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.547871716733236e-06</v>
+        <v>8.133732724606255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.255208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>242579.9920998385</v>
+        <v>266837.2375330233</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.034659148378</v>
+        <v>193.8252404816917</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.0171661633303</v>
+        <v>265.2002449930418</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6828962699252</v>
+        <v>239.889905821865</v>
       </c>
       <c r="AD2" t="n">
-        <v>171034.659148378</v>
+        <v>193825.2404816916</v>
       </c>
       <c r="AE2" t="n">
-        <v>234017.1661633303</v>
+        <v>265200.2449930419</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.198530872677557e-06</v>
+        <v>8.229062487027693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.857291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211682.8962699252</v>
+        <v>239889.905821865</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.125784222911</v>
+        <v>167.7457733556325</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.5675004714328</v>
+        <v>229.5171675262974</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.6164969177328</v>
+        <v>207.6123711870215</v>
       </c>
       <c r="AD3" t="n">
-        <v>145125.784222911</v>
+        <v>167745.7733556325</v>
       </c>
       <c r="AE3" t="n">
-        <v>198567.5004714328</v>
+        <v>229517.1675262974</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.674795596142906e-06</v>
+        <v>9.162534763072647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.464583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179616.4969177328</v>
+        <v>207612.3711870215</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.5364787471484</v>
+        <v>250.7429819331366</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.3254484226852</v>
+        <v>343.0776098804028</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.6129845733275</v>
+        <v>310.3347643059692</v>
       </c>
       <c r="AD2" t="n">
-        <v>227536.4787471484</v>
+        <v>250742.9819331366</v>
       </c>
       <c r="AE2" t="n">
-        <v>311325.4484226851</v>
+        <v>343077.6098804028</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.670693314372795e-06</v>
+        <v>7.057653345823764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>281612.9845733275</v>
+        <v>310334.7643059692</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1401153779996</v>
+        <v>169.2612777094162</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.9553531069566</v>
+        <v>231.5907474424767</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.8718948455861</v>
+        <v>209.488051546289</v>
       </c>
       <c r="AD3" t="n">
-        <v>146140.1153779996</v>
+        <v>169261.2777094162</v>
       </c>
       <c r="AE3" t="n">
-        <v>199955.3531069566</v>
+        <v>231590.7474424767</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716568204518443e-06</v>
+        <v>9.068560219696102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.364583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>180871.8948455861</v>
+        <v>209488.051546289</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.1249936595783</v>
+        <v>412.4035599776869</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.6308097886484</v>
+        <v>564.2687447224731</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.515167591297</v>
+        <v>510.4157276823166</v>
       </c>
       <c r="AD2" t="n">
-        <v>376124.9936595783</v>
+        <v>412403.559977687</v>
       </c>
       <c r="AE2" t="n">
-        <v>514630.8097886484</v>
+        <v>564268.7447224731</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.76381664445077e-06</v>
+        <v>5.148780783002059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.542708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>465515.167591297</v>
+        <v>510415.7276823166</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.809942493351</v>
+        <v>162.9028874412714</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.3448165844094</v>
+        <v>222.8909173652243</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.6515568964212</v>
+        <v>201.6185210413185</v>
       </c>
       <c r="AD3" t="n">
-        <v>150809.942493351</v>
+        <v>162902.8874412714</v>
       </c>
       <c r="AE3" t="n">
-        <v>206344.8165844094</v>
+        <v>222890.9173652242</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.720913517076217e-06</v>
+        <v>8.794703817903597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.244791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186651.5568964212</v>
+        <v>201618.5210413185</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.8647353057189</v>
+        <v>162.9576802536394</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.4197865275795</v>
+        <v>222.9658873083943</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.719371813436</v>
+        <v>201.6863359583334</v>
       </c>
       <c r="AD4" t="n">
-        <v>150864.7353057189</v>
+        <v>162957.6802536394</v>
       </c>
       <c r="AE4" t="n">
-        <v>206419.7865275795</v>
+        <v>222965.8873083942</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.732383466438663e-06</v>
+        <v>8.816071463611187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.236458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>186719.371813436</v>
+        <v>201686.3359583334</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.1544709415756</v>
+        <v>170.3954379197933</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.7114832561353</v>
+        <v>233.142555477931</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.3649838015811</v>
+        <v>210.8917572008163</v>
       </c>
       <c r="AD2" t="n">
-        <v>148154.4709415756</v>
+        <v>170395.4379197933</v>
       </c>
       <c r="AE2" t="n">
-        <v>202711.4832561353</v>
+        <v>233142.555477931</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.522027817058422e-06</v>
+        <v>9.064392798368864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.664583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>183364.9838015811</v>
+        <v>210891.7572008163</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.4052356470554</v>
+        <v>167.6462026252732</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.9498582384736</v>
+        <v>229.3809304602693</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.9623629961299</v>
+        <v>207.4891363953652</v>
       </c>
       <c r="AD3" t="n">
-        <v>145405.2356470554</v>
+        <v>167646.2026252732</v>
       </c>
       <c r="AE3" t="n">
-        <v>198949.8582384737</v>
+        <v>229380.9304602693</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.591071267281935e-06</v>
+        <v>9.202790211719509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>179962.3629961299</v>
+        <v>207489.1363953652</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.9032408529124</v>
+        <v>169.1937388666562</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.3677391653374</v>
+        <v>231.498337818209</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.0540461643608</v>
+        <v>209.4044613668637</v>
       </c>
       <c r="AD2" t="n">
-        <v>147903.2408529124</v>
+        <v>169193.7388666562</v>
       </c>
       <c r="AE2" t="n">
-        <v>202367.7391653373</v>
+        <v>231498.337818209</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369909295736177e-06</v>
+        <v>9.142123531704639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.950000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>183054.0461643608</v>
+        <v>209404.4613668637</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.9983082813961</v>
+        <v>186.4438273411632</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.1262087190102</v>
+        <v>255.1006698892111</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.4496021325693</v>
+        <v>230.7542199910979</v>
       </c>
       <c r="AD2" t="n">
-        <v>165998.3082813961</v>
+        <v>186443.8273411632</v>
       </c>
       <c r="AE2" t="n">
-        <v>227126.2087190102</v>
+        <v>255100.6698892111</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.078022759103139e-06</v>
+        <v>8.865033304483802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.379166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>205449.6021325693</v>
+        <v>230754.2199910979</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.7610807915455</v>
+        <v>257.2129614686463</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.0010029654576</v>
+        <v>351.9301213162346</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.1286265421938</v>
+        <v>318.3424044749459</v>
       </c>
       <c r="AD2" t="n">
-        <v>228761.0807915454</v>
+        <v>257212.9614686462</v>
       </c>
       <c r="AE2" t="n">
-        <v>313001.0029654576</v>
+        <v>351930.1213162346</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105768455578884e-06</v>
+        <v>7.387154014053767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.170833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>283128.6265421938</v>
+        <v>318342.4044749459</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.7852348227707</v>
+        <v>225.7464960790571</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.4597045375526</v>
+        <v>308.8763151677418</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.979339753711</v>
+        <v>279.397593158855</v>
       </c>
       <c r="AD2" t="n">
-        <v>202785.2348227708</v>
+        <v>225746.4960790571</v>
       </c>
       <c r="AE2" t="n">
-        <v>277459.7045375525</v>
+        <v>308876.3151677418</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.937988124790312e-06</v>
+        <v>7.641973887091219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.069791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>250979.339753711</v>
+        <v>279397.593158855</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.5471966471118</v>
+        <v>168.4231170488264</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.144095541628</v>
+        <v>230.4439390496196</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.1380625636851</v>
+        <v>208.4506929368902</v>
       </c>
       <c r="AD3" t="n">
-        <v>145547.1966471118</v>
+        <v>168423.1170488264</v>
       </c>
       <c r="AE3" t="n">
-        <v>199144.095541628</v>
+        <v>230443.9390496197</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.694719480931396e-06</v>
+        <v>9.110470256282585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.413541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180138.0625636851</v>
+        <v>208450.6929368902</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.3341711556892</v>
+        <v>359.3079220724892</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.8190068747453</v>
+        <v>491.6209505263565</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.0299648151395</v>
+        <v>444.7013370024579</v>
       </c>
       <c r="AD2" t="n">
-        <v>335334.1711556892</v>
+        <v>359307.9220724892</v>
       </c>
       <c r="AE2" t="n">
-        <v>458819.0068747453</v>
+        <v>491620.9505263565</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967996112623135e-06</v>
+        <v>5.569124842153305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.204166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>415029.9648151395</v>
+        <v>444701.3370024579</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.3081177280736</v>
+        <v>161.2950379407489</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.2899536847253</v>
+        <v>220.6909867452967</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.7928072278641</v>
+        <v>199.6285487121342</v>
       </c>
       <c r="AD3" t="n">
-        <v>149308.1177280736</v>
+        <v>161295.0379407489</v>
       </c>
       <c r="AE3" t="n">
-        <v>204289.9536847253</v>
+        <v>220690.9867452967</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725336869320412e-06</v>
+        <v>8.866585382154354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.26875</v>
       </c>
       <c r="AH3" t="n">
-        <v>184792.8072278641</v>
+        <v>199628.5487121342</v>
       </c>
     </row>
   </sheetData>
@@ -11592,28 +11592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.0956055853</v>
+        <v>331.651126092213</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.7628262611133</v>
+        <v>453.7797021344165</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.2282688074376</v>
+        <v>410.4716042465191</v>
       </c>
       <c r="AD2" t="n">
-        <v>295095.6055853</v>
+        <v>331651.126092213</v>
       </c>
       <c r="AE2" t="n">
-        <v>403762.8262611133</v>
+        <v>453779.7021344166</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.449936698189361e-06</v>
+        <v>6.127105757622956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>365228.2688074376</v>
+        <v>410471.604246519</v>
       </c>
     </row>
   </sheetData>
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.1907872515148</v>
+        <v>167.8186812002003</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.0246845997853</v>
+        <v>229.6169232557021</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.9346094380466</v>
+        <v>207.70260636962</v>
       </c>
       <c r="AD2" t="n">
-        <v>146190.7872515148</v>
+        <v>167818.6812002003</v>
       </c>
       <c r="AE2" t="n">
-        <v>200024.6845997853</v>
+        <v>229616.9232557022</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.464778318769663e-06</v>
+        <v>9.194244136011468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.809375</v>
       </c>
       <c r="AH2" t="n">
-        <v>180934.6094380466</v>
+        <v>207702.60636962</v>
       </c>
     </row>
     <row r="3">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.9481904197873</v>
+        <v>168.5760843684729</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.0609970288848</v>
+        <v>230.6532356848016</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.8720176633868</v>
+        <v>208.6400145949601</v>
       </c>
       <c r="AD3" t="n">
-        <v>146948.1904197873</v>
+        <v>168576.0843684729</v>
       </c>
       <c r="AE3" t="n">
-        <v>201060.9970288848</v>
+        <v>230653.2356848016</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.464941618514323e-06</v>
+        <v>9.194580416474362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.809375</v>
       </c>
       <c r="AH3" t="n">
-        <v>181872.0176633868</v>
+        <v>208640.0145949601</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.4909669868413</v>
+        <v>178.0135816443881</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.7496008086254</v>
+        <v>243.5660358106975</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.4450775034512</v>
+        <v>220.3204352000734</v>
       </c>
       <c r="AD2" t="n">
-        <v>155490.9669868413</v>
+        <v>178013.5816443881</v>
       </c>
       <c r="AE2" t="n">
-        <v>212749.6008086254</v>
+        <v>243566.0358106975</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.424402642245227e-06</v>
+        <v>8.765556218946203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.701041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>192445.0775034511</v>
+        <v>220320.4352000734</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.9437618935056</v>
+        <v>167.4663765510524</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.318449490082</v>
+        <v>229.1348844921541</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.3912150124968</v>
+        <v>207.2665727091191</v>
       </c>
       <c r="AD3" t="n">
-        <v>144943.7618935056</v>
+        <v>167466.3765510524</v>
       </c>
       <c r="AE3" t="n">
-        <v>198318.449490082</v>
+        <v>229134.8844921541</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.639797675111008e-06</v>
+        <v>9.192293435816831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.530208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>179391.2150124968</v>
+        <v>207266.5727091191</v>
       </c>
     </row>
   </sheetData>
